--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="globalConfig" sheetId="2" r:id="rId1"/>
     <sheet name="sqlConfig" sheetId="1" r:id="rId2"/>
-    <sheet name="Reflection" sheetId="3" r:id="rId3"/>
+    <sheet name="reflection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>configExplain</t>
   </si>
@@ -40,16 +40,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>是否预组装sql</t>
-  </si>
-  <si>
-    <t>needPreassembly</t>
-  </si>
-  <si>
-    <t>是否需要读sql配置</t>
-  </si>
-  <si>
-    <t>needLoadSqlConfig</t>
+    <t>默认值</t>
   </si>
   <si>
     <t>sql</t>
@@ -59,6 +50,132 @@
 </t>
   </si>
   <si>
+    <t>是否需要读sql配置</t>
+  </si>
+  <si>
+    <t>needLoadSqlConfig</t>
+  </si>
+  <si>
+    <t>sql配置文件的位置</t>
+  </si>
+  <si>
+    <t>sqlConfigPath</t>
+  </si>
+  <si>
+    <t>默认读当前文件sqlConfig Sheet页</t>
+  </si>
+  <si>
+    <t>sql配置文件的sheet页面</t>
+  </si>
+  <si>
+    <t>sqlConfigSheet</t>
+  </si>
+  <si>
+    <t>是否预组装sql</t>
+  </si>
+  <si>
+    <t>needPreassembly</t>
+  </si>
+  <si>
+    <t>是否要读取数据</t>
+  </si>
+  <si>
+    <t>needLoadData</t>
+  </si>
+  <si>
+    <t>方便后续扩展预留字段</t>
+  </si>
+  <si>
+    <t>数据文件存放的位置</t>
+  </si>
+  <si>
+    <t>dataFilePath</t>
+  </si>
+  <si>
+    <t>数据文件sheet页名字</t>
+  </si>
+  <si>
+    <t>dataFileSheet</t>
+  </si>
+  <si>
+    <t>如果有多个sheet直接再写一行</t>
+  </si>
+  <si>
+    <t>是否需要字段映射</t>
+  </si>
+  <si>
+    <t>needFieldsReflection</t>
+  </si>
+  <si>
+    <t>字段映射配置的文件位置</t>
+  </si>
+  <si>
+    <t>fieldsReflectionPath</t>
+  </si>
+  <si>
+    <t>字段映射配置的sheet页面</t>
+  </si>
+  <si>
+    <t>fieldsReflectionSheet</t>
+  </si>
+  <si>
+    <t>是否有需要计算的字段</t>
+  </si>
+  <si>
+    <t>needCalculatedField</t>
+  </si>
+  <si>
+    <t>字段计算类位置</t>
+  </si>
+  <si>
+    <t>calculatedClassPath</t>
+  </si>
+  <si>
+    <t>结果存放的位置</t>
+  </si>
+  <si>
+    <t>resultFilePath</t>
+  </si>
+  <si>
+    <t>默认为jar包所在文件夹下的 resultFile.sql</t>
+  </si>
+  <si>
+    <t>是否保存日志</t>
+  </si>
+  <si>
+    <t>saveLogs</t>
+  </si>
+  <si>
+    <t>日志存放位置</t>
+  </si>
+  <si>
+    <t>logsFilePath</t>
+  </si>
+  <si>
+    <t>默认为jar包所在文件夹下的 logs.txt</t>
+  </si>
+  <si>
+    <t>是否直接保存到数据库</t>
+  </si>
+  <si>
+    <t>saveToDataBase</t>
+  </si>
+  <si>
+    <t>预留字段</t>
+  </si>
+  <si>
+    <t>数据库类型</t>
+  </si>
+  <si>
+    <t>数据库地址/端口</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
     <t>SQLType</t>
   </si>
   <si>
@@ -87,6 +204,15 @@
   </si>
   <si>
     <t>tel</t>
+  </si>
+  <si>
+    <t>表中字段名</t>
+  </si>
+  <si>
+    <t>数据库中字段名</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -252,12 +378,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -578,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +740,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -620,90 +758,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,8 +859,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1240,61 +1399,252 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="162" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="b">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="162" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+      <c r="D19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1659,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1321,40 +1671,40 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1369,14 +1719,35 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>configExplain</t>
   </si>
@@ -50,6 +50,9 @@
 </t>
   </si>
   <si>
+    <t>sqlConfig的配置优先级是高于直接此处传入的sql的</t>
+  </si>
+  <si>
     <t>是否需要读sql配置</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>sqlConfigSheet</t>
   </si>
   <si>
+    <t>现价01</t>
+  </si>
+  <si>
     <t>是否预组装sql</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t>如果有多个sheet直接再写一行</t>
   </si>
   <si>
+    <t>现价02</t>
+  </si>
+  <si>
     <t>是否需要字段映射</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
     <t>saveLogs</t>
   </si>
   <si>
+    <t>预留字段</t>
+  </si>
+  <si>
     <t>日志存放位置</t>
   </si>
   <si>
@@ -159,9 +171,6 @@
   </si>
   <si>
     <t>saveToDataBase</t>
-  </si>
-  <si>
-    <t>预留字段</t>
   </si>
   <si>
     <t>数据库类型</t>
@@ -378,18 +387,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -716,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,16 +743,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,96 +761,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -866,9 +866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1399,53 +1396,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="162" spans="1:3">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="162" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
@@ -1453,198 +1453,214 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="b">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="b">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="b">
+    </row>
+    <row r="10" customFormat="1" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D11" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="b">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
+    <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="b">
+      <c r="C16" s="7"/>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="b">
+      <c r="D18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="b">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="b">
+      <c r="D20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>44</v>
+      <c r="E20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1671,40 +1687,40 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1733,18 +1749,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="globalConfig" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>configExplain</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>默认值</t>
+  </si>
+  <si>
+    <t>是否需要读sql</t>
+  </si>
+  <si>
+    <t>needLoadSql</t>
   </si>
   <si>
     <t>sql</t>
@@ -74,36 +80,60 @@
     <t>sqlConfigSheet</t>
   </si>
   <si>
+    <t>是否输出未加载数据的sql</t>
+  </si>
+  <si>
+    <t>needPreassembly</t>
+  </si>
+  <si>
+    <t>是否保存未加载数据的sql</t>
+  </si>
+  <si>
+    <t>savePreassembly</t>
+  </si>
+  <si>
+    <t>预留字段</t>
+  </si>
+  <si>
+    <t>未加载数据的sql保存路径</t>
+  </si>
+  <si>
+    <t>savePreassemblyPath</t>
+  </si>
+  <si>
+    <t>默认写当前文件preassemblySql Sheet页</t>
+  </si>
+  <si>
+    <t>未加载数据的sql保存sheet页</t>
+  </si>
+  <si>
+    <t>savePreassemblySheet</t>
+  </si>
+  <si>
+    <t>是否要读取数据</t>
+  </si>
+  <si>
+    <t>needLoadData</t>
+  </si>
+  <si>
+    <t>方便后续扩展预留字段</t>
+  </si>
+  <si>
+    <t>数据文件存放的位置</t>
+  </si>
+  <si>
+    <t>dataFilePath</t>
+  </si>
+  <si>
+    <t>数据文件sheet页名字</t>
+  </si>
+  <si>
+    <t>dataFileSheet</t>
+  </si>
+  <si>
     <t>现价01</t>
   </si>
   <si>
-    <t>是否预组装sql</t>
-  </si>
-  <si>
-    <t>needPreassembly</t>
-  </si>
-  <si>
-    <t>是否要读取数据</t>
-  </si>
-  <si>
-    <t>needLoadData</t>
-  </si>
-  <si>
-    <t>方便后续扩展预留字段</t>
-  </si>
-  <si>
-    <t>数据文件存放的位置</t>
-  </si>
-  <si>
-    <t>dataFilePath</t>
-  </si>
-  <si>
-    <t>数据文件sheet页名字</t>
-  </si>
-  <si>
-    <t>dataFileSheet</t>
-  </si>
-  <si>
     <t>如果有多个sheet直接再写一行</t>
   </si>
   <si>
@@ -155,9 +185,6 @@
     <t>saveLogs</t>
   </si>
   <si>
-    <t>预留字段</t>
-  </si>
-  <si>
     <t>日志存放位置</t>
   </si>
   <si>
@@ -185,19 +212,22 @@
     <t>密码</t>
   </si>
   <si>
-    <t>SQLType</t>
-  </si>
-  <si>
-    <t>TbaleName</t>
-  </si>
-  <si>
-    <t>columnName</t>
-  </si>
-  <si>
-    <t>fixedValue</t>
-  </si>
-  <si>
-    <t>fixed</t>
+    <t>sql类型</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段值</t>
+  </si>
+  <si>
+    <t>是否为固定值</t>
+  </si>
+  <si>
+    <t>如果字段为空，字段值写null 或者 字段值不写  是否为固定值写 1 或者 true</t>
   </si>
   <si>
     <t>insert</t>
@@ -215,10 +245,10 @@
     <t>tel</t>
   </si>
   <si>
+    <t>数据库中字段名</t>
+  </si>
+  <si>
     <t>表中字段名</t>
-  </si>
-  <si>
-    <t>数据库中字段名</t>
   </si>
   <si>
     <t>BT</t>
@@ -234,10 +264,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,138 +750,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1396,271 +1436,320 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="162" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="162" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="b">
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="b">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:3">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="b">
+      <c r="C11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="b">
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:3">
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
+      <c r="D15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="b">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:4">
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="b">
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="b">
+      <c r="D24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>50</v>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1672,55 +1761,58 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1737,30 +1829,30 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="globalConfig" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>configExplain</t>
   </si>
@@ -52,8 +52,47 @@
     <t>sql</t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO `user_center`.`user` (`id`, `username`, `userAccount`, `userPassword`, `gender`, `avatar`, `phone`, `email`, `userStatus`, `userRole`, `createTime`, `updateTime`, `isDelete`) VALUES (5, 'musen', 'musen', 'e95bfd8448bda367e40a03bfd62d8954', NULL, 'https://s11.ax1x.com/2024/02/13/pF8t5md.jpg', NULL, NULL, 0, 1, '2024-02-14 10:44:24', '2024-02-27 16:42:12', 0);
-</t>
+    <t>INSERT INTO prem_rate_tbl (
+ START_DATE,
+ PRODUCT_CODE,
+ PREM_PERSON,
+ SEX_CODE,
+ PREM_AGE,
+ OCCUPATION_GRADE,
+ COVERAGE_CODE,
+ TRANSPORT_CARRIER,
+ COVER_PERIOD_TYPE,
+ COVER_PERIOD,
+ PREM_PERIOD_TYPE,
+ PREM_PERIOD,
+ PREM_FREQUENCY,
+ PREMIUM,
+ COVER_LIAB,
+ SOCIAL_INSURANCE_FLAG,
+ ADDITIONAL_PRODUCT_FLAG,
+ PLAN_NAME 
+)
+VALUES
+ (
+  sysdate,
+  '{}',
+  '{}',
+  '{}',
+  '{}',
+  '0',
+  '0',
+  '0',
+  '0',
+  '{}',
+  '{}',
+  '{}',
+  '99',
+  '{}',
+  '0',
+  '{}',
+  '{}',
+ '{}' 
+ )</t>
   </si>
   <si>
     <t>sqlConfig的配置优先级是高于直接此处传入的sql的</t>
@@ -125,21 +164,21 @@
     <t>dataFilePath</t>
   </si>
   <si>
+    <t>C:\Users\musen\Desktop\5.瑞众福临门（瑞丰版）年金保险上线数据.xlsx</t>
+  </si>
+  <si>
     <t>数据文件sheet页名字</t>
   </si>
   <si>
     <t>dataFileSheet</t>
   </si>
   <si>
-    <t>现价01</t>
+    <t>现价</t>
   </si>
   <si>
     <t>如果有多个sheet直接再写一行</t>
   </si>
   <si>
-    <t>现价02</t>
-  </si>
-  <si>
     <t>是否需要字段映射</t>
   </si>
   <si>
@@ -176,6 +215,9 @@
     <t>resultFilePath</t>
   </si>
   <si>
+    <t>C:\Users\musen\Desktop\resultFile.sql</t>
+  </si>
+  <si>
     <t>默认为jar包所在文件夹下的 resultFile.sql</t>
   </si>
   <si>
@@ -233,25 +275,55 @@
     <t>insert</t>
   </si>
   <si>
-    <t>user003</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>tel</t>
+    <t>prem_rate_tbl</t>
+  </si>
+  <si>
+    <t>表中字段名</t>
   </si>
   <si>
     <t>数据库中字段名</t>
   </si>
   <si>
-    <t>表中字段名</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>PLAN_NAME</t>
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>COVER_PERIOD</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PREM_PERIOD_TYPE</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>SEX_CODE</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>PREM_AGE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>COVERAGE_YEAR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
   </si>
 </sst>
 </file>
@@ -1436,17 +1508,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1477,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="162" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1597,159 +1669,155 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:3">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="b">
+      <c r="C17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
+    <row r="18" s="2" customFormat="1" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="b">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="b">
+      <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="22" s="3" customFormat="1" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C22" s="9"/>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1761,13 +1829,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
@@ -1776,46 +1844,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1827,32 +1879,79 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>configExplain</t>
   </si>
@@ -164,7 +164,7 @@
     <t>dataFilePath</t>
   </si>
   <si>
-    <t>C:\Users\musen\Desktop\5.瑞众福临门（瑞丰版）年金保险上线数据.xlsx</t>
+    <t>C:\Users\musen\Desktop\00\test\5.瑞众福临门（瑞丰版）年金保险上线数据.xlsx</t>
   </si>
   <si>
     <t>数据文件sheet页名字</t>
@@ -173,7 +173,7 @@
     <t>dataFileSheet</t>
   </si>
   <si>
-    <t>现价</t>
+    <t>保额</t>
   </si>
   <si>
     <t>如果有多个sheet直接再写一行</t>
@@ -203,19 +203,34 @@
     <t>needCalculatedField</t>
   </si>
   <si>
+    <t>是否需要缓存字段加载类</t>
+  </si>
+  <si>
+    <t>needCacheClass</t>
+  </si>
+  <si>
     <t>字段计算类位置</t>
   </si>
   <si>
     <t>calculatedClassPath</t>
   </si>
   <si>
+    <t>只写路径 不写具体的类名 默认 jar包所在文件夹</t>
+  </si>
+  <si>
+    <t>calculatedClassName</t>
+  </si>
+  <si>
+    <t>FieldsCalculated</t>
+  </si>
+  <si>
     <t>结果存放的位置</t>
   </si>
   <si>
     <t>resultFilePath</t>
   </si>
   <si>
-    <t>C:\Users\musen\Desktop\resultFile.sql</t>
+    <t>C:\Users\musen\Desktop\00\test\resultFile.sql</t>
   </si>
   <si>
     <t>默认为jar包所在文件夹下的 resultFile.sql</t>
@@ -276,6 +291,9 @@
   </si>
   <si>
     <t>prem_rate_tbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START_DATE </t>
   </si>
   <si>
     <t>表中字段名</t>
@@ -336,7 +354,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +365,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -822,137 +846,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +984,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -978,6 +1005,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1508,27 +1541,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="71.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1536,10 +1569,10 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -1550,13 +1583,13 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1564,10 +1597,10 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -1597,27 +1630,27 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="b">
+      <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="b">
+      <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="b">
+      <c r="C8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -1625,34 +1658,34 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="b">
+      <c r="C11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
@@ -1669,7 +1702,7 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1680,7 +1713,7 @@
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1694,7 +1727,7 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="b">
+      <c r="C14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
@@ -1724,62 +1757,62 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="b">
+      <c r="C17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:3">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="3" customFormat="1" spans="1:4">
+      <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1790,34 +1823,63 @@
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="b">
-        <v>0</v>
+      <c r="C23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" s="4" customFormat="1" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1832,42 +1894,51 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>11111</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1953,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1892,66 +1963,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>configExplain</t>
   </si>
@@ -206,7 +206,7 @@
     <t>是否需要缓存字段加载类</t>
   </si>
   <si>
-    <t>needCacheClass</t>
+    <t>needCacheCalculatedFieldClass</t>
   </si>
   <si>
     <t>字段计算类位置</t>
@@ -218,10 +218,22 @@
     <t>只写路径 不写具体的类名 默认 jar包所在文件夹</t>
   </si>
   <si>
+    <t>字段计算类类名</t>
+  </si>
+  <si>
     <t>calculatedClassName</t>
   </si>
   <si>
     <t>FieldsCalculated</t>
+  </si>
+  <si>
+    <t>字段计算类编译后存放位置</t>
+  </si>
+  <si>
+    <t>compileCalculatedClassName</t>
+  </si>
+  <si>
+    <t>默认 jar包所在文件夹</t>
   </si>
   <si>
     <t>结果存放的位置</t>
@@ -976,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +996,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1007,8 +1022,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,27 +1556,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="71.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="71.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1569,10 +1584,10 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -1583,13 +1598,13 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1597,10 +1612,10 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -1630,27 +1645,27 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="b">
+      <c r="D7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -1658,34 +1673,34 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
@@ -1702,7 +1717,7 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1713,7 +1728,7 @@
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1727,7 +1742,7 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="b">
+      <c r="C14" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
@@ -1757,7 +1772,7 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="b">
+      <c r="C17" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
@@ -1765,10 +1780,10 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="11" t="b">
@@ -1779,107 +1794,119 @@
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:4">
-      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="b">
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="b">
+      <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" s="5" customFormat="1" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="b">
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="b">
+      <c r="D26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1906,33 +1933,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>11111</v>
@@ -1963,66 +1990,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -10,6 +10,8 @@
     <sheet name="globalConfig" sheetId="2" r:id="rId1"/>
     <sheet name="sqlConfig" sheetId="1" r:id="rId2"/>
     <sheet name="reflection" sheetId="3" r:id="rId3"/>
+    <sheet name="fieldsCalculated" sheetId="4" r:id="rId4"/>
+    <sheet name="deleteFields" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,18 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
-  <si>
-    <t>configExplain</t>
-  </si>
-  <si>
-    <t>configType</t>
-  </si>
-  <si>
-    <t>value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+  <si>
+    <t>配置项</t>
+  </si>
+  <si>
+    <t>配置项-英文</t>
+  </si>
+  <si>
+    <t>值</t>
   </si>
   <si>
     <t>默认值</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>是否需要读sql</t>
@@ -179,6 +184,15 @@
     <t>如果有多个sheet直接再写一行</t>
   </si>
   <si>
+    <t>是否以覆盖的方式保存结果</t>
+  </si>
+  <si>
+    <t>overlayOrNot</t>
+  </si>
+  <si>
+    <t>写结果文件的时候 是一个sheet页的数据写一次文件 数据有多个sheet页时 需要用追加的方式写入</t>
+  </si>
+  <si>
     <t>是否需要字段映射</t>
   </si>
   <si>
@@ -197,6 +211,27 @@
     <t>fieldsReflectionSheet</t>
   </si>
   <si>
+    <t>是否有需要删除字段</t>
+  </si>
+  <si>
+    <t>deleteFieldsOrNot</t>
+  </si>
+  <si>
+    <t>删除字段配置存放位置</t>
+  </si>
+  <si>
+    <t>deleteFieldsConfigPath</t>
+  </si>
+  <si>
+    <t>默认当前文件deleteFields Sheet页</t>
+  </si>
+  <si>
+    <t>删除字段配置存放Sheet页</t>
+  </si>
+  <si>
+    <t>deleteFieldsConfigSheet</t>
+  </si>
+  <si>
     <t>是否有需要计算的字段</t>
   </si>
   <si>
@@ -209,6 +244,30 @@
     <t>needCacheCalculatedFieldClass</t>
   </si>
   <si>
+    <t>是否需要重新编译字段加载类</t>
+  </si>
+  <si>
+    <t>recompileOrNot</t>
+  </si>
+  <si>
+    <t>字段计算类 没有改动的情况下 可以改成false  因为编译特别耗时</t>
+  </si>
+  <si>
+    <t>字段计算配置位置</t>
+  </si>
+  <si>
+    <t>calculatedClassConfigPath</t>
+  </si>
+  <si>
+    <t>默认读当前文件fieldsCalculated Sheet页</t>
+  </si>
+  <si>
+    <t>字段计算配置Sheet页名字</t>
+  </si>
+  <si>
+    <t>calculatedClassConfigSheet</t>
+  </si>
+  <si>
     <t>字段计算类位置</t>
   </si>
   <si>
@@ -227,6 +286,9 @@
     <t>FieldsCalculated</t>
   </si>
   <si>
+    <t>写名字就行 不用加.java后缀</t>
+  </si>
+  <si>
     <t>字段计算类编译后存放位置</t>
   </si>
   <si>
@@ -354,6 +416,30 @@
   </si>
   <si>
     <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>方法名</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>prem_period_type</t>
+  </si>
+  <si>
+    <t>getPremPeriodType</t>
+  </si>
+  <si>
+    <t>prem_period</t>
+  </si>
+  <si>
+    <t>getPremPeriod</t>
   </si>
 </sst>
 </file>
@@ -366,7 +452,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +469,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -858,178 +951,190 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1556,358 +1661,473 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="71.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="80.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="92.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="b">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:5">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="409.5" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="b">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="b">
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="b">
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:5">
+      <c r="A23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="6" t="b">
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:5">
+      <c r="A32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="b">
+      <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1921,7 +2141,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1933,33 +2153,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>11111</v>
@@ -1990,70 +2210,148 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>配置项</t>
   </si>
@@ -90,7 +90,7 @@
   '0',
   '{}',
   '{}',
-  '{}',
+  '1',
   '99',
   '{}',
   '0',
@@ -391,55 +391,58 @@
     <t>PT</t>
   </si>
   <si>
+    <t>PREM_PERIOD</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>SEX_CODE</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>PREM_AGE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>COVERAGE_YEAR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>方法名</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
     <t>PREM_PERIOD_TYPE</t>
   </si>
   <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>SEX_CODE</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>PREM_AGE</t>
-  </si>
-  <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>COVERAGE_YEAR</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>PREMIUM</t>
-  </si>
-  <si>
-    <t>方法名</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>prem_period_type</t>
-  </si>
-  <si>
     <t>getPremPeriodType</t>
   </si>
   <si>
-    <t>prem_period</t>
-  </si>
-  <si>
     <t>getPremPeriod</t>
+  </si>
+  <si>
+    <t>需要删除的字段名</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSURANCE_FLAG</t>
   </si>
 </sst>
 </file>
@@ -1081,9 +1084,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,7 +1670,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1673,7 +1679,7 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="80.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="92.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="92.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1689,54 +1695,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="b">
+      <c r="C2" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="b">
+      <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -1746,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1779,7 +1785,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1792,7 +1798,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1805,7 +1811,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -1818,50 +1824,50 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:5">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="4" customFormat="1" spans="1:5">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:5">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="4" customFormat="1" spans="1:5">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="b">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1916,7 +1922,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1940,112 +1946,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="5" customFormat="1" spans="1:5">
+      <c r="A22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="b">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:5">
-      <c r="A23" s="14" t="s">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:5">
+      <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14" t="b">
+      <c r="C23" s="9"/>
+      <c r="D23" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="12" t="s">
+    <row r="24" s="5" customFormat="1" spans="1:5">
+      <c r="A24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:5">
-      <c r="A25" s="12" t="s">
+    <row r="25" s="5" customFormat="1" spans="1:5">
+      <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="1:5">
+      <c r="A26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:5">
-      <c r="A27" s="12" t="s">
+    <row r="27" s="5" customFormat="1" spans="1:5">
+      <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="12" t="s">
+    <row r="28" s="5" customFormat="1" spans="1:5">
+      <c r="A28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="13"/>
+      <c r="E28" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:5">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2067,20 +2071,20 @@
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:5">
-      <c r="A32" s="16" t="s">
+    <row r="32" s="7" customFormat="1" spans="1:5">
+      <c r="A32" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2097,7 +2101,7 @@
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2167,7 +2171,7 @@
       <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2200,7 +2204,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -2284,13 +2288,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -2319,19 +2323,19 @@
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>121</v>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2343,14 +2347,28 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>配置项</t>
   </si>
@@ -72,6 +72,7 @@
  PREM_PERIOD,
  PREM_FREQUENCY,
  PREMIUM,
+ TTTTT,
  COVER_LIAB,
  SOCIAL_INSURANCE_FLAG,
  ADDITIONAL_PRODUCT_FLAG,
@@ -88,11 +89,12 @@
   '0',
   '0',
   '0',
-  '{}',
+  ,
   '{}',
   '1',
   '99',
   '{}',
+  '00000000000000000000000',
   '0',
   '{}',
   '{}',
@@ -148,12 +150,6 @@
     <t>默认写当前文件preassemblySql Sheet页</t>
   </si>
   <si>
-    <t>未加载数据的sql保存sheet页</t>
-  </si>
-  <si>
-    <t>savePreassemblySheet</t>
-  </si>
-  <si>
     <t>是否要读取数据</t>
   </si>
   <si>
@@ -178,7 +174,7 @@
     <t>dataFileSheet</t>
   </si>
   <si>
-    <t>保额</t>
+    <t>现价</t>
   </si>
   <si>
     <t>如果有多个sheet直接再写一行</t>
@@ -310,6 +306,12 @@
     <t>默认为jar包所在文件夹下的 resultFile.sql</t>
   </si>
   <si>
+    <t>打印详细日志</t>
+  </si>
+  <si>
+    <t>printLogs</t>
+  </si>
+  <si>
     <t>是否保存日志</t>
   </si>
   <si>
@@ -364,10 +366,16 @@
     <t>insert</t>
   </si>
   <si>
-    <t>prem_rate_tbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START_DATE </t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>PLAN_NAME</t>
+  </si>
+  <si>
+    <t>PRODUCT_CODE</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>表中字段名</t>
@@ -379,9 +387,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>PLAN_NAME</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -443,6 +448,12 @@
   </si>
   <si>
     <t>SOCIAL_INSURANCE_FLAG</t>
+  </si>
+  <si>
+    <t>TTTTT</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_PRODUCT_FLAG</t>
   </si>
 </sst>
 </file>
@@ -1667,10 +1678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1810,65 +1821,65 @@
         <v>26</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:5">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:5">
-      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="b">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1878,9 +1889,7 @@
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -1898,33 +1907,33 @@
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="1"/>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="8" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -1933,59 +1942,61 @@
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:5">
+      <c r="A21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="b">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:5">
+      <c r="A22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="b">
+      <c r="C22" s="9"/>
+      <c r="D22" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" s="6" customFormat="1" spans="1:5">
-      <c r="A23" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="15" t="s">
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:5">
+      <c r="A23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>59</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" s="13" t="s">
@@ -1994,144 +2005,157 @@
       <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="E26" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:5">
-      <c r="A28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="13" t="s">
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="29" s="5" customFormat="1" spans="1:5">
+      <c r="A29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="b">
+      <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="b">
+      <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:5">
-      <c r="A32" s="17" t="s">
+    <row r="33" s="7" customFormat="1" spans="1:5">
+      <c r="A33" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1" t="b">
+      <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="1" t="b">
+      <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2142,33 +2166,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2176,20 +2202,28 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>11111</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2" s="2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2214,66 +2248,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2304,38 +2338,38 @@
         <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>106</v>
+      <c r="A3" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2347,25 +2381,35 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/target/config.xlsx
+++ b/target/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="globalConfig" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>配置项</t>
   </si>
@@ -174,7 +174,7 @@
     <t>dataFileSheet</t>
   </si>
   <si>
-    <t>现价</t>
+    <t>保额</t>
   </si>
   <si>
     <t>如果有多个sheet直接再写一行</t>
@@ -378,6 +378,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>PREM_PERSON</t>
+  </si>
+  <si>
     <t>表中字段名</t>
   </si>
   <si>
@@ -421,6 +424,9 @@
   </si>
   <si>
     <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
   <si>
     <t>方法名</t>
@@ -1095,12 +1101,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1680,7 +1683,7 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1690,7 +1693,7 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="80.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="92.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="92.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1706,54 +1709,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="b">
+      <c r="C2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="b">
+      <c r="D2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="b">
+      <c r="C4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -1763,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1796,7 +1799,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1824,50 +1827,50 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:5">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:5">
-      <c r="A13" s="9" t="s">
+    <row r="13" s="3" customFormat="1" spans="1:5">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="b">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1922,7 +1925,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1946,141 +1949,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:5">
-      <c r="A21" s="13" t="s">
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="b">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:5">
-      <c r="A22" s="15" t="s">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:5">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="15" t="b">
+      <c r="C22" s="8"/>
+      <c r="D22" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:5">
-      <c r="A23" s="13" t="s">
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:5">
-      <c r="A24" s="13" t="s">
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:5">
-      <c r="A26" s="13" t="s">
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:5">
-      <c r="A27" s="13" t="s">
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="12"/>
+      <c r="E27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="9" t="s">
+    <row r="28" s="3" customFormat="1" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:5">
-      <c r="A29" s="13" t="s">
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="13" t="b">
+      <c r="D29" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -2095,20 +2098,20 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:5">
-      <c r="A33" s="17" t="s">
+    <row r="33" s="6" customFormat="1" spans="1:5">
+      <c r="A33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2125,7 +2128,7 @@
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2166,64 +2169,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>11111</v>
       </c>
-      <c r="E2" s="2" t="b">
+      <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2235,28 +2252,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -2264,50 +2282,58 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2338,38 +2364,38 @@
         <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2394,22 +2420,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
